--- a/test_files/test_schedule_1_mock_badVideoDir.xlsx
+++ b/test_files/test_schedule_1_mock_badVideoDir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mitter\Documents\streamscheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7927487-B5BF-458B-97F4-7A91B0ECBD14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB43F6-896B-4FBE-B801-F2FFA632D1EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_schedule_1" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>dclive_0_1@2345</t>
   </si>
   <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids\test.mp4</t>
-  </si>
-  <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids\test4.mp4</t>
-  </si>
-  <si>
-    <t>C:\Users\michael.mitter\Documents\streamscheduler\test_files\vids2\test2.mp4</t>
+    <t>test_files\vids\test.mp4</t>
+  </si>
+  <si>
+    <t>test_files\vids2\test2.mp4</t>
+  </si>
+  <si>
+    <t>test_files\vids\test4.mp4</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +952,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -963,7 +963,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/test_schedule_1_mock_badVideoDir.xlsx
+++ b/test_files/test_schedule_1_mock_badVideoDir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mitter\Documents\streamscheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB43F6-896B-4FBE-B801-F2FFA632D1EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C415D-1532-4013-8A7B-C75625FF869C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>dclive_0_1@2345</t>
   </si>
   <si>
-    <t>test_files\vids\test.mp4</t>
-  </si>
-  <si>
-    <t>test_files\vids2\test2.mp4</t>
-  </si>
-  <si>
-    <t>test_files\vids\test4.mp4</t>
+    <t>test_files/vids/test.mp4</t>
+  </si>
+  <si>
+    <t>test_files/vids2/test2.mp4</t>
+  </si>
+  <si>
+    <t>test_files/vids/test4.mp4</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
